--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2106247.938052981</v>
+        <v>-2108569.011131074</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5625041.408425033</v>
+        <v>5625041.408425029</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.3303155802432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>18.29749587628852</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.77524664835969</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.610081585228042</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>198.7050131246913</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>18.29749587628852</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>88.46061606973225</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83589518354164</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>185.08009402024</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.2442400157274</v>
+        <v>119.2442400157278</v>
       </c>
       <c r="T11" t="n">
         <v>205.8498289850884</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.3439141065054</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3055863904066</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>97.83310760955519</v>
       </c>
       <c r="S13" t="n">
         <v>193.2189102119588</v>
       </c>
       <c r="T13" t="n">
-        <v>215.2653768744302</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>411.3630412092429</v>
       </c>
       <c r="H14" t="n">
-        <v>299.1273873230491</v>
+        <v>299.127387323049</v>
       </c>
       <c r="I14" t="n">
         <v>58.5907477374985</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H16" t="n">
         <v>146.5150500802809</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>97.83310760955519</v>
       </c>
       <c r="S16" t="n">
-        <v>131.8152951896317</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.3947739469271</v>
+        <v>20.36982175434764</v>
       </c>
       <c r="U16" t="n">
         <v>286.2226359673672</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>74.40288823798812</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3055863904066</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>97.83310760955519</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T19" t="n">
         <v>220.3947739469271</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2226359673672</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>73.13837354414102</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>70.71501642562887</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>146.5150500802809</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.3055863904066</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2226359673672</v>
+        <v>54.4431261900535</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>160.2582886041914</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T25" t="n">
         <v>220.3947739469271</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>158.3851589020098</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>102.3944380800027</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.3055863904066</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.83310760955519</v>
       </c>
       <c r="S28" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.3947739469271</v>
@@ -2770,7 +2770,7 @@
         <v>286.2226359673672</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.6240317443276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>166.2237672245247</v>
       </c>
       <c r="H31" t="n">
-        <v>63.85925921625353</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>102.3055863904066</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>97.83310760955519</v>
       </c>
       <c r="S31" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3947739469271</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>130.8191992948966</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>299.1273873230491</v>
       </c>
       <c r="I32" t="n">
-        <v>58.59074773749844</v>
+        <v>58.5907477374985</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>123.9031767071876</v>
       </c>
       <c r="C34" t="n">
-        <v>111.3180176238781</v>
+        <v>111.3180176238789</v>
       </c>
       <c r="D34" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E34" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F34" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G34" t="n">
-        <v>110.294963749775</v>
+        <v>110.2949637497751</v>
       </c>
       <c r="H34" t="n">
-        <v>90.58624660553114</v>
+        <v>90.58624660553117</v>
       </c>
       <c r="I34" t="n">
-        <v>46.37678291565778</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.90430413480544</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S34" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T34" t="n">
         <v>164.4659704721774</v>
@@ -3253,7 +3253,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>326.8050381887308</v>
+        <v>326.8050381887309</v>
       </c>
       <c r="C35" t="n">
         <v>309.3440882962578</v>
@@ -3272,7 +3272,7 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E35" t="n">
-        <v>326.001566597512</v>
+        <v>326.0015665975121</v>
       </c>
       <c r="F35" t="n">
         <v>350.9472422669617</v>
@@ -3284,7 +3284,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I35" t="n">
-        <v>2.661944262748762</v>
+        <v>2.661944262748797</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31543654097806</v>
+        <v>63.31543654097808</v>
       </c>
       <c r="T35" t="n">
         <v>149.9210255103387</v>
@@ -3326,7 +3326,7 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W35" t="n">
-        <v>293.3121652426632</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X35" t="n">
         <v>313.8022972037193</v>
@@ -3427,22 +3427,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D37" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E37" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F37" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G37" t="n">
-        <v>110.294963749775</v>
+        <v>110.2949637497751</v>
       </c>
       <c r="H37" t="n">
-        <v>90.58624660553116</v>
+        <v>90.58624660553117</v>
       </c>
       <c r="I37" t="n">
-        <v>46.37678291565689</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.90430413480544</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S37" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T37" t="n">
         <v>164.4659704721774</v>
@@ -3490,7 +3490,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y37" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.8050381887308</v>
+        <v>326.8050381887309</v>
       </c>
       <c r="C38" t="n">
         <v>309.3440882962578</v>
@@ -3509,7 +3509,7 @@
         <v>298.7542381459332</v>
       </c>
       <c r="E38" t="n">
-        <v>326.001566597512</v>
+        <v>326.0015665975121</v>
       </c>
       <c r="F38" t="n">
         <v>350.9472422669617</v>
@@ -3521,7 +3521,7 @@
         <v>243.1985838482994</v>
       </c>
       <c r="I38" t="n">
-        <v>2.661944262748762</v>
+        <v>2.661944262748797</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.31543654097806</v>
+        <v>63.31543654097808</v>
       </c>
       <c r="T38" t="n">
         <v>149.9210255103387</v>
@@ -3563,7 +3563,7 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W38" t="n">
-        <v>293.3121652426632</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X38" t="n">
         <v>313.8022972037193</v>
@@ -3664,22 +3664,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D40" t="n">
-        <v>92.68666954346261</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E40" t="n">
-        <v>90.50515917181943</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F40" t="n">
-        <v>89.4922445481815</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G40" t="n">
-        <v>110.294963749775</v>
+        <v>110.2949637497751</v>
       </c>
       <c r="H40" t="n">
-        <v>90.58624660553114</v>
+        <v>90.58624660553117</v>
       </c>
       <c r="I40" t="n">
-        <v>46.3767829156569</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.90430413480544</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S40" t="n">
-        <v>137.290106737209</v>
+        <v>137.2901067372091</v>
       </c>
       <c r="T40" t="n">
         <v>164.4659704721774</v>
@@ -3727,7 +3727,7 @@
         <v>169.7808519142874</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.655849877345</v>
+        <v>162.6558498773451</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3743,22 @@
         <v>309.3440882962578</v>
       </c>
       <c r="D41" t="n">
-        <v>298.7542381459333</v>
+        <v>298.7542381459332</v>
       </c>
       <c r="E41" t="n">
         <v>326.0015665975121</v>
       </c>
       <c r="F41" t="n">
-        <v>350.9472422669618</v>
+        <v>350.9472422669617</v>
       </c>
       <c r="G41" t="n">
-        <v>355.4342377344929</v>
+        <v>355.4342377344932</v>
       </c>
       <c r="H41" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I41" t="n">
-        <v>2.661944262748818</v>
+        <v>2.661944262748797</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.31543654097811</v>
+        <v>63.31543654097809</v>
       </c>
       <c r="T41" t="n">
-        <v>149.9210255103388</v>
+        <v>149.9210255103387</v>
       </c>
       <c r="U41" t="n">
         <v>195.1016737286154</v>
@@ -3800,10 +3800,10 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W41" t="n">
-        <v>293.3121652426634</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X41" t="n">
-        <v>313.8022972037194</v>
+        <v>313.8022972037193</v>
       </c>
       <c r="Y41" t="n">
         <v>330.3091351813039</v>
@@ -3901,22 +3901,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D43" t="n">
-        <v>92.68666954346267</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E43" t="n">
-        <v>90.50515917181949</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F43" t="n">
-        <v>89.49224454818156</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G43" t="n">
-        <v>110.2949637497751</v>
+        <v>110.294963749775</v>
       </c>
       <c r="H43" t="n">
-        <v>90.58624660553122</v>
+        <v>90.58624660553119</v>
       </c>
       <c r="I43" t="n">
-        <v>46.37678291565695</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9043041348055</v>
+        <v>41.90430413480548</v>
       </c>
       <c r="S43" t="n">
         <v>137.2901067372091</v>
@@ -3952,7 +3952,7 @@
         <v>164.4659704721774</v>
       </c>
       <c r="U43" t="n">
-        <v>230.2938324926176</v>
+        <v>230.2938324926175</v>
       </c>
       <c r="V43" t="n">
         <v>196.2088398490783</v>
@@ -3961,7 +3961,7 @@
         <v>230.5941948618413</v>
       </c>
       <c r="X43" t="n">
-        <v>169.7808519142875</v>
+        <v>169.7808519142874</v>
       </c>
       <c r="Y43" t="n">
         <v>162.6558498773451</v>
@@ -3980,22 +3980,22 @@
         <v>309.3440882962578</v>
       </c>
       <c r="D44" t="n">
-        <v>298.7542381459333</v>
+        <v>298.7542381459332</v>
       </c>
       <c r="E44" t="n">
         <v>326.0015665975121</v>
       </c>
       <c r="F44" t="n">
-        <v>350.9472422669618</v>
+        <v>350.9472422669617</v>
       </c>
       <c r="G44" t="n">
-        <v>355.4342377344933</v>
+        <v>355.4342377344932</v>
       </c>
       <c r="H44" t="n">
         <v>243.1985838482994</v>
       </c>
       <c r="I44" t="n">
-        <v>2.661944262748818</v>
+        <v>2.66194426274879</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.31543654097811</v>
+        <v>63.31543654097808</v>
       </c>
       <c r="T44" t="n">
-        <v>149.9210255103388</v>
+        <v>149.9210255103387</v>
       </c>
       <c r="U44" t="n">
         <v>195.1016737286154</v>
@@ -4037,10 +4037,10 @@
         <v>271.8234549953852</v>
       </c>
       <c r="W44" t="n">
-        <v>293.3121652426634</v>
+        <v>293.3121652426633</v>
       </c>
       <c r="X44" t="n">
-        <v>313.8022972037194</v>
+        <v>313.8022972037193</v>
       </c>
       <c r="Y44" t="n">
         <v>330.3091351813039</v>
@@ -4138,22 +4138,22 @@
         <v>111.3180176238781</v>
       </c>
       <c r="D46" t="n">
-        <v>92.68666954346267</v>
+        <v>92.68666954346264</v>
       </c>
       <c r="E46" t="n">
-        <v>90.50515917181949</v>
+        <v>90.50515917181946</v>
       </c>
       <c r="F46" t="n">
-        <v>89.49224454818156</v>
+        <v>89.49224454818153</v>
       </c>
       <c r="G46" t="n">
-        <v>110.2949637497751</v>
+        <v>110.294963749775</v>
       </c>
       <c r="H46" t="n">
-        <v>90.5862466055312</v>
+        <v>90.58624660553119</v>
       </c>
       <c r="I46" t="n">
-        <v>46.37678291565695</v>
+        <v>46.37678291565692</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9043041348055</v>
+        <v>41.90430413480547</v>
       </c>
       <c r="S46" t="n">
         <v>137.2901067372091</v>
@@ -4198,7 +4198,7 @@
         <v>230.5941948618413</v>
       </c>
       <c r="X46" t="n">
-        <v>169.7808519142875</v>
+        <v>169.7808519142874</v>
       </c>
       <c r="Y46" t="n">
         <v>162.6558498773451</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F2" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G2" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X2" t="n">
-        <v>752.9257720901863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y2" t="n">
-        <v>752.9257720901863</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.5807722530562</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="C3" t="n">
-        <v>109.5807722530562</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>962.4308104750523</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>789.0134659257212</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>789.0134659257212</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>560.7898476621102</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>560.7898476621102</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W3" t="n">
-        <v>317.3410710180102</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X3" t="n">
-        <v>317.3410710180102</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.5807722530562</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="4">
@@ -4504,28 +4504,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3894334091926</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4765,10 +4765,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>753.253405673024</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>753.253405673024</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8046290289238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>777.1075655912018</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4993,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.113933790197</v>
+        <v>2397.113933790195</v>
       </c>
       <c r="C11" t="n">
-        <v>2028.151416849785</v>
+        <v>2028.151416849784</v>
       </c>
       <c r="D11" t="n">
-        <v>1669.885718243035</v>
+        <v>1669.885718243033</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644789</v>
       </c>
       <c r="F11" t="n">
-        <v>873.1115608551829</v>
+        <v>873.1115608551822</v>
       </c>
       <c r="G11" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115029</v>
       </c>
       <c r="H11" t="n">
-        <v>155.4444613276152</v>
+        <v>155.4444613276155</v>
       </c>
       <c r="I11" t="n">
         <v>96.26188785539451</v>
@@ -5042,19 +5042,19 @@
         <v>415.4651227431204</v>
       </c>
       <c r="K11" t="n">
-        <v>693.7088727395128</v>
+        <v>1014.612831184966</v>
       </c>
       <c r="L11" t="n">
-        <v>1489.281212868327</v>
+        <v>1810.18517131378</v>
       </c>
       <c r="M11" t="n">
-        <v>2391.115277113498</v>
+        <v>2379.464265763675</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.909961810828</v>
+        <v>2848.285495293142</v>
       </c>
       <c r="O11" t="n">
-        <v>3722.269293403152</v>
+        <v>3654.637006335583</v>
       </c>
       <c r="P11" t="n">
         <v>4305.164982501232</v>
@@ -5066,25 +5066,25 @@
         <v>4813.094392769725</v>
       </c>
       <c r="S11" t="n">
-        <v>4692.645665481112</v>
+        <v>4692.645665481111</v>
       </c>
       <c r="T11" t="n">
-        <v>4484.716545294154</v>
+        <v>4484.716545294152</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.150406704895</v>
+        <v>4231.150406704894</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.087519361325</v>
+        <v>3900.087519361323</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.31886409121</v>
+        <v>3547.318864091209</v>
       </c>
       <c r="X11" t="n">
-        <v>3173.853105830131</v>
+        <v>3173.853105830129</v>
       </c>
       <c r="Y11" t="n">
-        <v>2783.713773854319</v>
+        <v>2783.713773854317</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J12" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K12" t="n">
-        <v>493.2003055554646</v>
+        <v>368.3701805684599</v>
       </c>
       <c r="L12" t="n">
-        <v>809.1420765831169</v>
+        <v>684.3119515961121</v>
       </c>
       <c r="M12" t="n">
-        <v>1197.188089534042</v>
+        <v>1438.861055259615</v>
       </c>
       <c r="N12" t="n">
-        <v>1609.913170696577</v>
+        <v>1851.58613642215</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.256192372098</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P12" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q12" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R12" t="n">
         <v>2600.592059963695</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1129.354522685246</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="C13" t="n">
-        <v>960.4183397573391</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="D13" t="n">
-        <v>810.3017003450034</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="E13" t="n">
-        <v>662.3886067626103</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="F13" t="n">
-        <v>515.4986592646999</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G13" t="n">
-        <v>347.5958640884122</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H13" t="n">
-        <v>199.6008640073204</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I13" t="n">
         <v>96.26188785539451</v>
@@ -5221,28 +5221,28 @@
         <v>1762.757492825129</v>
       </c>
       <c r="R13" t="n">
-        <v>1762.757492825129</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S13" t="n">
-        <v>1567.586876449413</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T13" t="n">
-        <v>1350.147101828776</v>
+        <v>1246.144571846905</v>
       </c>
       <c r="U13" t="n">
-        <v>1350.147101828776</v>
+        <v>957.0307981424939</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.147101828776</v>
+        <v>957.0307981424939</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.147101828776</v>
+        <v>667.6136281055333</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.147101828776</v>
+        <v>439.6240772075159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1129.354522685246</v>
+        <v>218.8314980639858</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F14" t="n">
-        <v>873.1115608551831</v>
+        <v>873.1115608551829</v>
       </c>
       <c r="G14" t="n">
         <v>457.5933374115032</v>
@@ -5279,22 +5279,22 @@
         <v>248.0594737227674</v>
       </c>
       <c r="K14" t="n">
-        <v>847.207182164613</v>
+        <v>759.1620600539834</v>
       </c>
       <c r="L14" t="n">
-        <v>1642.779522293427</v>
+        <v>1554.734400182798</v>
       </c>
       <c r="M14" t="n">
-        <v>2540.322628113138</v>
+        <v>2011.550066270064</v>
       </c>
       <c r="N14" t="n">
-        <v>3442.117312810468</v>
+        <v>2913.344750967395</v>
       </c>
       <c r="O14" t="n">
-        <v>4248.46882385291</v>
+        <v>3719.696262009836</v>
       </c>
       <c r="P14" t="n">
-        <v>4580.416078928791</v>
+        <v>4370.224238175485</v>
       </c>
       <c r="Q14" t="n">
         <v>4781.521896611468</v>
@@ -5355,25 +5355,25 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J15" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K15" t="n">
-        <v>526.8967564225472</v>
+        <v>368.3701805684599</v>
       </c>
       <c r="L15" t="n">
-        <v>842.8385274501995</v>
+        <v>1050.81504230869</v>
       </c>
       <c r="M15" t="n">
-        <v>1230.884540401124</v>
+        <v>1438.861055259615</v>
       </c>
       <c r="N15" t="n">
-        <v>1643.609621563659</v>
+        <v>1851.58613642215</v>
       </c>
       <c r="O15" t="n">
-        <v>1998.952643239181</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P15" t="n">
-        <v>2264.813679484683</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q15" t="n">
         <v>2600.592059963695</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.3989051687157</v>
+        <v>662.3886067626103</v>
       </c>
       <c r="C16" t="n">
-        <v>642.3989051687157</v>
+        <v>662.3886067626103</v>
       </c>
       <c r="D16" t="n">
-        <v>642.3989051687157</v>
+        <v>662.3886067626103</v>
       </c>
       <c r="E16" t="n">
-        <v>494.4858115863226</v>
+        <v>662.3886067626103</v>
       </c>
       <c r="F16" t="n">
-        <v>347.5958640884122</v>
+        <v>515.4986592646999</v>
       </c>
       <c r="G16" t="n">
         <v>347.5958640884122</v>
@@ -5458,28 +5458,28 @@
         <v>1762.757492825129</v>
       </c>
       <c r="R16" t="n">
-        <v>1762.757492825129</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S16" t="n">
-        <v>1629.610730007319</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.989746222544</v>
+        <v>1643.360594477752</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.875972518133</v>
+        <v>1354.246820773341</v>
       </c>
       <c r="V16" t="n">
-        <v>863.1914843122458</v>
+        <v>1354.246820773341</v>
       </c>
       <c r="W16" t="n">
-        <v>863.1914843122458</v>
+        <v>1064.82965073638</v>
       </c>
       <c r="X16" t="n">
-        <v>863.1914843122458</v>
+        <v>1064.82965073638</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.3989051687157</v>
+        <v>844.03707159285</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J17" t="n">
-        <v>415.4651227431204</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K17" t="n">
-        <v>1014.612831184966</v>
+        <v>847.207182164613</v>
       </c>
       <c r="L17" t="n">
-        <v>1810.18517131378</v>
+        <v>1229.294919888481</v>
       </c>
       <c r="M17" t="n">
-        <v>2379.464265763675</v>
+        <v>2131.128984133652</v>
       </c>
       <c r="N17" t="n">
-        <v>2848.285495293142</v>
+        <v>3032.923668830982</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.637006335583</v>
+        <v>3839.275179873424</v>
       </c>
       <c r="P17" t="n">
-        <v>4305.164982501232</v>
+        <v>4489.803156039073</v>
       </c>
       <c r="Q17" t="n">
         <v>4716.462640937215</v>
@@ -5540,7 +5540,7 @@
         <v>4813.094392769725</v>
       </c>
       <c r="S17" t="n">
-        <v>4692.645665481111</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T17" t="n">
         <v>4484.716545294154</v>
@@ -5552,7 +5552,7 @@
         <v>3900.087519361325</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.318864091211</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X17" t="n">
         <v>3173.853105830131</v>
@@ -5595,22 +5595,22 @@
         <v>167.853643123439</v>
       </c>
       <c r="K18" t="n">
-        <v>368.3701805684599</v>
+        <v>630.1907652109127</v>
       </c>
       <c r="L18" t="n">
-        <v>842.8385274501995</v>
+        <v>946.1325362385649</v>
       </c>
       <c r="M18" t="n">
-        <v>1230.884540401124</v>
+        <v>1334.17854918949</v>
       </c>
       <c r="N18" t="n">
-        <v>1643.609621563659</v>
+        <v>1746.903630352024</v>
       </c>
       <c r="O18" t="n">
-        <v>1998.952643239181</v>
+        <v>2102.246652027546</v>
       </c>
       <c r="P18" t="n">
-        <v>2264.813679484683</v>
+        <v>2368.107688273048</v>
       </c>
       <c r="Q18" t="n">
         <v>2600.592059963695</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>909.7059141685669</v>
+        <v>412.0880182812118</v>
       </c>
       <c r="C19" t="n">
-        <v>740.76973124066</v>
+        <v>243.1518353533049</v>
       </c>
       <c r="D19" t="n">
-        <v>590.6530918283242</v>
+        <v>243.1518353533049</v>
       </c>
       <c r="E19" t="n">
-        <v>515.4986592646999</v>
+        <v>243.1518353533049</v>
       </c>
       <c r="F19" t="n">
-        <v>515.4986592646999</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="G19" t="n">
-        <v>347.5958640884122</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="H19" t="n">
-        <v>199.6008640073204</v>
+        <v>96.26188785539451</v>
       </c>
       <c r="I19" t="n">
         <v>96.26188785539451</v>
@@ -5695,28 +5695,28 @@
         <v>1762.757492825129</v>
       </c>
       <c r="R19" t="n">
-        <v>1762.757492825129</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S19" t="n">
-        <v>1762.757492825129</v>
+        <v>1468.76555563168</v>
       </c>
       <c r="T19" t="n">
-        <v>1540.136509040354</v>
+        <v>1246.144571846905</v>
       </c>
       <c r="U19" t="n">
-        <v>1540.136509040354</v>
+        <v>957.0307981424939</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.136509040354</v>
+        <v>883.1536531484121</v>
       </c>
       <c r="W19" t="n">
-        <v>1540.136509040354</v>
+        <v>593.7364831114515</v>
       </c>
       <c r="X19" t="n">
-        <v>1312.146958142337</v>
+        <v>593.7364831114515</v>
       </c>
       <c r="Y19" t="n">
-        <v>1091.354378998807</v>
+        <v>593.7364831114515</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2397.113933790197</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.151416849785</v>
+        <v>2028.151416849786</v>
       </c>
       <c r="D20" t="n">
         <v>1669.885718243035</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F20" t="n">
-        <v>873.1115608551829</v>
+        <v>873.1115608551836</v>
       </c>
       <c r="G20" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115039</v>
       </c>
       <c r="H20" t="n">
         <v>155.4444613276152</v>
@@ -5750,28 +5750,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J20" t="n">
-        <v>415.4651227431204</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K20" t="n">
-        <v>1014.612831184966</v>
+        <v>847.207182164613</v>
       </c>
       <c r="L20" t="n">
-        <v>1810.18517131378</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M20" t="n">
-        <v>2379.464265763675</v>
+        <v>2544.613586538598</v>
       </c>
       <c r="N20" t="n">
-        <v>2848.285495293142</v>
+        <v>3446.408271235928</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.637006335583</v>
+        <v>3875.767602828252</v>
       </c>
       <c r="P20" t="n">
-        <v>4305.164982501232</v>
+        <v>4370.224238175485</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.462640937215</v>
+        <v>4781.521896611468</v>
       </c>
       <c r="R20" t="n">
         <v>4813.094392769725</v>
@@ -5780,22 +5780,22 @@
         <v>4692.645665481111</v>
       </c>
       <c r="T20" t="n">
-        <v>4484.716545294153</v>
+        <v>4484.716545294154</v>
       </c>
       <c r="U20" t="n">
         <v>4231.150406704895</v>
       </c>
       <c r="V20" t="n">
-        <v>3900.087519361324</v>
+        <v>3900.087519361325</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.318864091209</v>
+        <v>3547.31886409121</v>
       </c>
       <c r="X20" t="n">
-        <v>3173.85310583013</v>
+        <v>3173.853105830131</v>
       </c>
       <c r="Y20" t="n">
-        <v>2783.713773854318</v>
+        <v>2783.713773854319</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>292.6837681104437</v>
       </c>
       <c r="K21" t="n">
-        <v>496.4856199938964</v>
+        <v>704.462134852387</v>
       </c>
       <c r="L21" t="n">
-        <v>812.4273910215486</v>
+        <v>1020.403905880039</v>
       </c>
       <c r="M21" t="n">
-        <v>1200.473403972474</v>
+        <v>1408.449918830964</v>
       </c>
       <c r="N21" t="n">
-        <v>1613.198485135008</v>
+        <v>1821.174999993499</v>
       </c>
       <c r="O21" t="n">
-        <v>1968.54150681053</v>
+        <v>2176.518021669021</v>
       </c>
       <c r="P21" t="n">
-        <v>2234.402543056032</v>
+        <v>2442.379057914522</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.180923535044</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.5420608778697</v>
+        <v>813.5386339265652</v>
       </c>
       <c r="C22" t="n">
-        <v>760.6058779499629</v>
+        <v>644.6024509986584</v>
       </c>
       <c r="D22" t="n">
-        <v>610.4892385376271</v>
+        <v>494.4858115863226</v>
       </c>
       <c r="E22" t="n">
-        <v>462.576144955234</v>
+        <v>494.4858115863226</v>
       </c>
       <c r="F22" t="n">
-        <v>315.6861974573236</v>
+        <v>347.5958640884122</v>
       </c>
       <c r="G22" t="n">
-        <v>244.2568879364864</v>
+        <v>347.5958640884122</v>
       </c>
       <c r="H22" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I22" t="n">
         <v>96.26188785539451</v>
@@ -5935,25 +5935,25 @@
         <v>1762.757492825129</v>
       </c>
       <c r="S22" t="n">
-        <v>1762.757492825129</v>
+        <v>1567.586876449413</v>
       </c>
       <c r="T22" t="n">
-        <v>1762.757492825129</v>
+        <v>1567.586876449413</v>
       </c>
       <c r="U22" t="n">
-        <v>1473.643719120717</v>
+        <v>1512.593819691783</v>
       </c>
       <c r="V22" t="n">
-        <v>1218.95923091483</v>
+        <v>1512.593819691783</v>
       </c>
       <c r="W22" t="n">
-        <v>929.5420608778697</v>
+        <v>1223.176649654822</v>
       </c>
       <c r="X22" t="n">
-        <v>929.5420608778697</v>
+        <v>995.187098756805</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.5420608778697</v>
+        <v>995.187098756805</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E23" t="n">
-        <v>1284.09746564479</v>
+        <v>1284.097465644791</v>
       </c>
       <c r="F23" t="n">
-        <v>873.1115608551829</v>
+        <v>873.1115608551841</v>
       </c>
       <c r="G23" t="n">
-        <v>457.5933374115039</v>
+        <v>457.5933374115035</v>
       </c>
       <c r="H23" t="n">
         <v>155.4444613276152</v>
@@ -5990,31 +5990,31 @@
         <v>248.0594737227674</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9162237391529</v>
+        <v>847.207182164613</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.488563867967</v>
+        <v>1642.779522293427</v>
       </c>
       <c r="M23" t="n">
-        <v>2540.322628113138</v>
+        <v>2475.263372438885</v>
       </c>
       <c r="N23" t="n">
-        <v>3442.117312810468</v>
+        <v>3377.058057136215</v>
       </c>
       <c r="O23" t="n">
-        <v>4248.46882385291</v>
+        <v>4183.409568178657</v>
       </c>
       <c r="P23" t="n">
-        <v>4580.416078928791</v>
+        <v>4515.356823254538</v>
       </c>
       <c r="Q23" t="n">
-        <v>4781.521896611468</v>
+        <v>4716.462640937215</v>
       </c>
       <c r="R23" t="n">
         <v>4813.094392769725</v>
       </c>
       <c r="S23" t="n">
-        <v>4692.645665481111</v>
+        <v>4692.645665481112</v>
       </c>
       <c r="T23" t="n">
         <v>4484.716545294154</v>
@@ -6066,28 +6066,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J24" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K24" t="n">
-        <v>496.4856199938964</v>
+        <v>368.3701805684599</v>
       </c>
       <c r="L24" t="n">
-        <v>812.4273910215486</v>
+        <v>684.3119515961121</v>
       </c>
       <c r="M24" t="n">
-        <v>1200.473403972474</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.198485135008</v>
+        <v>1485.083045709572</v>
       </c>
       <c r="O24" t="n">
-        <v>1968.54150681053</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P24" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q24" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R24" t="n">
         <v>2600.592059963695</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.26188785539451</v>
+        <v>413.1930708643932</v>
       </c>
       <c r="C25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="D25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="E25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="F25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="G25" t="n">
-        <v>96.26188785539451</v>
+        <v>244.2568879364864</v>
       </c>
       <c r="H25" t="n">
         <v>96.26188785539451</v>
@@ -6172,25 +6172,25 @@
         <v>1762.757492825129</v>
       </c>
       <c r="S25" t="n">
-        <v>1600.880433628976</v>
+        <v>1567.586876449413</v>
       </c>
       <c r="T25" t="n">
-        <v>1378.259449844201</v>
+        <v>1344.965892664638</v>
       </c>
       <c r="U25" t="n">
-        <v>1089.14567613979</v>
+        <v>1055.852118960227</v>
       </c>
       <c r="V25" t="n">
-        <v>834.4611879339027</v>
+        <v>801.1676307543397</v>
       </c>
       <c r="W25" t="n">
-        <v>545.044017896942</v>
+        <v>801.1676307543397</v>
       </c>
       <c r="X25" t="n">
-        <v>317.0544669989246</v>
+        <v>573.1780798563224</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.26188785539451</v>
+        <v>413.1930708643932</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1669.885718243035</v>
       </c>
       <c r="E26" t="n">
-        <v>1284.097465644791</v>
+        <v>1284.09746564479</v>
       </c>
       <c r="F26" t="n">
-        <v>873.111560855183</v>
+        <v>873.1115608551829</v>
       </c>
       <c r="G26" t="n">
-        <v>457.5933374115033</v>
+        <v>457.5933374115032</v>
       </c>
       <c r="H26" t="n">
         <v>155.4444613276152</v>
@@ -6224,25 +6224,25 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J26" t="n">
-        <v>415.4651227431204</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K26" t="n">
-        <v>777.8569680648998</v>
+        <v>567.665127311594</v>
       </c>
       <c r="L26" t="n">
-        <v>1573.429308193714</v>
+        <v>1363.237467440408</v>
       </c>
       <c r="M26" t="n">
-        <v>2475.263372438885</v>
+        <v>2265.071531685579</v>
       </c>
       <c r="N26" t="n">
-        <v>3377.058057136215</v>
+        <v>3166.866216382909</v>
       </c>
       <c r="O26" t="n">
-        <v>4183.409568178657</v>
+        <v>3973.217727425351</v>
       </c>
       <c r="P26" t="n">
-        <v>4515.356823254538</v>
+        <v>4305.164982501232</v>
       </c>
       <c r="Q26" t="n">
         <v>4716.462640937215</v>
@@ -6303,28 +6303,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J27" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K27" t="n">
-        <v>493.2003055554646</v>
+        <v>368.3701805684599</v>
       </c>
       <c r="L27" t="n">
-        <v>809.1420765831169</v>
+        <v>684.3119515961121</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.188089534042</v>
+        <v>1072.357964547037</v>
       </c>
       <c r="N27" t="n">
-        <v>1609.913170696577</v>
+        <v>1851.58613642215</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.256192372098</v>
+        <v>2206.929158097671</v>
       </c>
       <c r="P27" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q27" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R27" t="n">
         <v>2600.592059963695</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.26188785539451</v>
+        <v>453.1462287529922</v>
       </c>
       <c r="C28" t="n">
-        <v>96.26188785539451</v>
+        <v>453.1462287529922</v>
       </c>
       <c r="D28" t="n">
-        <v>96.26188785539451</v>
+        <v>303.0295893406565</v>
       </c>
       <c r="E28" t="n">
-        <v>96.26188785539451</v>
+        <v>303.0295893406565</v>
       </c>
       <c r="F28" t="n">
-        <v>96.26188785539451</v>
+        <v>303.0295893406565</v>
       </c>
       <c r="G28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="H28" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I28" t="n">
         <v>96.26188785539451</v>
@@ -6406,28 +6406,28 @@
         <v>1762.757492825129</v>
       </c>
       <c r="R28" t="n">
-        <v>1762.757492825129</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.586876449413</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="T28" t="n">
-        <v>1344.965892664638</v>
+        <v>1441.315188222621</v>
       </c>
       <c r="U28" t="n">
-        <v>1055.852118960227</v>
+        <v>1152.20141451821</v>
       </c>
       <c r="V28" t="n">
-        <v>801.1676307543397</v>
+        <v>1152.20141451821</v>
       </c>
       <c r="W28" t="n">
-        <v>511.7504607173791</v>
+        <v>862.7842444812493</v>
       </c>
       <c r="X28" t="n">
-        <v>283.7609098193618</v>
+        <v>634.7946935832319</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.26188785539451</v>
+        <v>634.7946935832319</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>2028.151416849785</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.885718243035</v>
+        <v>1669.885718243034</v>
       </c>
       <c r="E29" t="n">
         <v>1284.09746564479</v>
       </c>
       <c r="F29" t="n">
-        <v>873.1115608551829</v>
+        <v>873.1115608551827</v>
       </c>
       <c r="G29" t="n">
-        <v>457.5933374115032</v>
+        <v>457.5933374115029</v>
       </c>
       <c r="H29" t="n">
         <v>155.4444613276152</v>
@@ -6464,25 +6464,25 @@
         <v>415.4651227431204</v>
       </c>
       <c r="K29" t="n">
-        <v>777.8569680648998</v>
+        <v>693.7088727395128</v>
       </c>
       <c r="L29" t="n">
-        <v>1573.429308193714</v>
+        <v>1109.716002024894</v>
       </c>
       <c r="M29" t="n">
-        <v>2475.263372438885</v>
+        <v>2011.550066270064</v>
       </c>
       <c r="N29" t="n">
-        <v>3377.058057136215</v>
+        <v>2913.344750967395</v>
       </c>
       <c r="O29" t="n">
-        <v>4183.409568178657</v>
+        <v>3719.696262009836</v>
       </c>
       <c r="P29" t="n">
-        <v>4515.356823254538</v>
+        <v>4370.224238175485</v>
       </c>
       <c r="Q29" t="n">
-        <v>4716.462640937215</v>
+        <v>4781.521896611468</v>
       </c>
       <c r="R29" t="n">
         <v>4813.094392769725</v>
@@ -6491,7 +6491,7 @@
         <v>4692.645665481111</v>
       </c>
       <c r="T29" t="n">
-        <v>4484.716545294154</v>
+        <v>4484.716545294153</v>
       </c>
       <c r="U29" t="n">
         <v>4231.150406704895</v>
@@ -6540,28 +6540,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J30" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K30" t="n">
-        <v>493.2003055554646</v>
+        <v>526.8967564225472</v>
       </c>
       <c r="L30" t="n">
-        <v>809.1420765831169</v>
+        <v>842.8385274501995</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.188089534042</v>
+        <v>1230.884540401124</v>
       </c>
       <c r="N30" t="n">
-        <v>1609.913170696577</v>
+        <v>1643.609621563659</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.256192372098</v>
+        <v>1998.952643239181</v>
       </c>
       <c r="P30" t="n">
-        <v>2234.402543056032</v>
+        <v>2264.813679484683</v>
       </c>
       <c r="Q30" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R30" t="n">
         <v>2600.592059963695</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>942.5248486908682</v>
+        <v>1129.354522685246</v>
       </c>
       <c r="C31" t="n">
-        <v>773.5886657629613</v>
+        <v>960.4183397573391</v>
       </c>
       <c r="D31" t="n">
-        <v>623.4720263506256</v>
+        <v>810.3017003450034</v>
       </c>
       <c r="E31" t="n">
-        <v>475.5589327682325</v>
+        <v>662.3886067626103</v>
       </c>
       <c r="F31" t="n">
-        <v>328.6689852703221</v>
+        <v>515.4986592646999</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7661900940344</v>
+        <v>347.5958640884122</v>
       </c>
       <c r="H31" t="n">
-        <v>96.26188785539451</v>
+        <v>199.6008640073204</v>
       </c>
       <c r="I31" t="n">
         <v>96.26188785539451</v>
@@ -6643,28 +6643,28 @@
         <v>1762.757492825129</v>
       </c>
       <c r="R31" t="n">
-        <v>1762.757492825129</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.586876449413</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="T31" t="n">
-        <v>1344.965892664638</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="U31" t="n">
-        <v>1344.965892664638</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="V31" t="n">
-        <v>1344.965892664638</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="W31" t="n">
-        <v>1344.965892664638</v>
+        <v>1663.936172007396</v>
       </c>
       <c r="X31" t="n">
-        <v>1344.965892664638</v>
+        <v>1531.795566659016</v>
       </c>
       <c r="Y31" t="n">
-        <v>1124.173313521108</v>
+        <v>1311.002987515486</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J32" t="n">
-        <v>415.4651227431204</v>
+        <v>248.0594737227674</v>
       </c>
       <c r="K32" t="n">
-        <v>1014.612831184966</v>
+        <v>847.207182164613</v>
       </c>
       <c r="L32" t="n">
-        <v>1810.18517131378</v>
+        <v>1229.294919888481</v>
       </c>
       <c r="M32" t="n">
-        <v>2267.000837401047</v>
+        <v>2131.128984133652</v>
       </c>
       <c r="N32" t="n">
-        <v>2848.285495293142</v>
+        <v>3032.923668830982</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.637006335583</v>
+        <v>3839.275179873424</v>
       </c>
       <c r="P32" t="n">
-        <v>4305.164982501232</v>
+        <v>4489.803156039073</v>
       </c>
       <c r="Q32" t="n">
-        <v>4716.462640937215</v>
+        <v>4781.521896611468</v>
       </c>
       <c r="R32" t="n">
         <v>4813.094392769725</v>
@@ -6777,28 +6777,28 @@
         <v>96.26188785539451</v>
       </c>
       <c r="J33" t="n">
-        <v>292.6837681104437</v>
+        <v>167.853643123439</v>
       </c>
       <c r="K33" t="n">
-        <v>493.2003055554646</v>
+        <v>419.5951303275002</v>
       </c>
       <c r="L33" t="n">
-        <v>809.1420765831169</v>
+        <v>735.5369013551524</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.188089534042</v>
+        <v>1123.582914306077</v>
       </c>
       <c r="N33" t="n">
-        <v>1609.913170696577</v>
+        <v>1536.307995468612</v>
       </c>
       <c r="O33" t="n">
-        <v>1965.256192372098</v>
+        <v>1891.651017144134</v>
       </c>
       <c r="P33" t="n">
-        <v>2234.402543056032</v>
+        <v>2472.790194343173</v>
       </c>
       <c r="Q33" t="n">
-        <v>2570.180923535044</v>
+        <v>2600.592059963695</v>
       </c>
       <c r="R33" t="n">
         <v>2600.592059963695</v>
@@ -6835,34 +6835,34 @@
         <v>733.8983365001477</v>
       </c>
       <c r="C34" t="n">
-        <v>621.4558944558264</v>
+        <v>621.4558944558256</v>
       </c>
       <c r="D34" t="n">
-        <v>527.8329959270762</v>
+        <v>527.8329959270754</v>
       </c>
       <c r="E34" t="n">
-        <v>436.4136432282687</v>
+        <v>436.4136432282679</v>
       </c>
       <c r="F34" t="n">
-        <v>346.017436613944</v>
+        <v>346.0174366139431</v>
       </c>
       <c r="G34" t="n">
-        <v>234.6083823212419</v>
+        <v>234.6083823212411</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1071231237357</v>
+        <v>143.1071231237348</v>
       </c>
       <c r="I34" t="n">
         <v>96.26188785539451</v>
       </c>
       <c r="J34" t="n">
-        <v>182.8982938703333</v>
+        <v>182.8982938703332</v>
       </c>
       <c r="K34" t="n">
-        <v>419.4857520478004</v>
+        <v>419.4857520478003</v>
       </c>
       <c r="L34" t="n">
-        <v>762.2782776407257</v>
+        <v>762.2782776407255</v>
       </c>
       <c r="M34" t="n">
         <v>1131.084180701766</v>
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1984.363745293797</v>
+        <v>1984.363745293796</v>
       </c>
       <c r="C35" t="n">
-        <v>1671.894969236971</v>
+        <v>1671.89496923697</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.123011513806</v>
+        <v>1370.123011513805</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.828499799147</v>
+        <v>1040.828499799146</v>
       </c>
       <c r="F35" t="n">
-        <v>686.3363358931254</v>
+        <v>686.3363358931244</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3118533330312</v>
+        <v>327.3118533330303</v>
       </c>
       <c r="H35" t="n">
-        <v>81.6567181327279</v>
+        <v>81.65671813272795</v>
       </c>
       <c r="I35" t="n">
         <v>78.96788554409279</v>
       </c>
       <c r="J35" t="n">
-        <v>230.7654714114657</v>
+        <v>398.1711204318187</v>
       </c>
       <c r="K35" t="n">
-        <v>509.0092214078581</v>
+        <v>676.4148704282111</v>
       </c>
       <c r="L35" t="n">
-        <v>1150.780627752999</v>
+        <v>1058.50260815208</v>
       </c>
       <c r="M35" t="n">
-        <v>2052.61469199817</v>
+        <v>1515.318274239346</v>
       </c>
       <c r="N35" t="n">
-        <v>2954.4093766955</v>
+        <v>1984.139503768812</v>
       </c>
       <c r="O35" t="n">
-        <v>3383.768708287824</v>
+        <v>2789.936890770498</v>
       </c>
       <c r="P35" t="n">
-        <v>3715.715963363705</v>
+        <v>3440.464866936147</v>
       </c>
       <c r="Q35" t="n">
-        <v>3916.821781046382</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R35" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S35" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.439290799612</v>
       </c>
       <c r="T35" t="n">
         <v>3733.003911496239</v>
       </c>
       <c r="U35" t="n">
-        <v>3535.931513790567</v>
+        <v>3535.931513790566</v>
       </c>
       <c r="V35" t="n">
-        <v>3261.362367330582</v>
+        <v>3261.362367330581</v>
       </c>
       <c r="W35" t="n">
         <v>2965.087452944053</v>
@@ -7014,28 +7014,28 @@
         <v>78.96788554409279</v>
       </c>
       <c r="J36" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K36" t="n">
-        <v>475.9063032441629</v>
+        <v>351.0761782571582</v>
       </c>
       <c r="L36" t="n">
-        <v>791.8480742718152</v>
+        <v>667.0179492848104</v>
       </c>
       <c r="M36" t="n">
-        <v>1179.89408722274</v>
+        <v>1055.063962235735</v>
       </c>
       <c r="N36" t="n">
-        <v>1592.619168385275</v>
+        <v>1467.78904339827</v>
       </c>
       <c r="O36" t="n">
-        <v>1947.962190060797</v>
+        <v>1823.132065073792</v>
       </c>
       <c r="P36" t="n">
-        <v>2217.10854074473</v>
+        <v>2404.271242272831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R36" t="n">
         <v>2583.298057652393</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.6043341888451</v>
+        <v>716.6043341888449</v>
       </c>
       <c r="C37" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445236</v>
       </c>
       <c r="D37" t="n">
-        <v>510.5389936157736</v>
+        <v>510.5389936157734</v>
       </c>
       <c r="E37" t="n">
-        <v>419.1196409169661</v>
+        <v>419.1196409169659</v>
       </c>
       <c r="F37" t="n">
-        <v>328.7234343026414</v>
+        <v>328.7234343026411</v>
       </c>
       <c r="G37" t="n">
-        <v>217.3143800099393</v>
+        <v>217.314380009939</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8131208124331</v>
+        <v>125.813120812433</v>
       </c>
       <c r="I37" t="n">
         <v>78.96788554409279</v>
@@ -7096,10 +7096,10 @@
         <v>165.6042915590315</v>
       </c>
       <c r="K37" t="n">
-        <v>402.1917497364985</v>
+        <v>402.1917497364984</v>
       </c>
       <c r="L37" t="n">
-        <v>744.9842753294239</v>
+        <v>744.9842753294238</v>
       </c>
       <c r="M37" t="n">
         <v>1113.790178390464</v>
@@ -7108,22 +7108,22 @@
         <v>1480.577881140502</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.576201541056</v>
+        <v>1807.576201541057</v>
       </c>
       <c r="P37" t="n">
         <v>2071.850402722025</v>
       </c>
       <c r="Q37" t="n">
-        <v>2188.419614033844</v>
+        <v>2188.419614033845</v>
       </c>
       <c r="R37" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.415158607567</v>
+        <v>2007.415158607568</v>
       </c>
       <c r="T37" t="n">
-        <v>1841.287915706377</v>
+        <v>1841.287915706378</v>
       </c>
       <c r="U37" t="n">
         <v>1608.667882885552</v>
@@ -7132,13 +7132,13 @@
         <v>1410.477135563251</v>
       </c>
       <c r="W37" t="n">
-        <v>1177.553706409876</v>
+        <v>1177.553706409875</v>
       </c>
       <c r="X37" t="n">
         <v>1006.057896395444</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.7590581354992</v>
+        <v>841.759058135499</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1984.363745293795</v>
+        <v>1984.363745293796</v>
       </c>
       <c r="C38" t="n">
         <v>1671.894969236969</v>
       </c>
       <c r="D38" t="n">
-        <v>1370.123011513804</v>
+        <v>1370.123011513805</v>
       </c>
       <c r="E38" t="n">
-        <v>1040.828499799145</v>
+        <v>1040.828499799146</v>
       </c>
       <c r="F38" t="n">
-        <v>686.3363358931235</v>
+        <v>686.336335893124</v>
       </c>
       <c r="G38" t="n">
-        <v>327.3118533330294</v>
+        <v>327.3118533330298</v>
       </c>
       <c r="H38" t="n">
-        <v>81.6567181327279</v>
+        <v>81.65671813272793</v>
       </c>
       <c r="I38" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J38" t="n">
         <v>398.1711204318187</v>
@@ -7178,13 +7178,13 @@
         <v>997.3188288736642</v>
       </c>
       <c r="L38" t="n">
-        <v>1434.940663561441</v>
+        <v>1379.406566597533</v>
       </c>
       <c r="M38" t="n">
-        <v>1891.756329648708</v>
+        <v>1836.222232684799</v>
       </c>
       <c r="N38" t="n">
-        <v>2360.577559178174</v>
+        <v>2305.043462214265</v>
       </c>
       <c r="O38" t="n">
         <v>2789.936890770497</v>
@@ -7211,13 +7211,13 @@
         <v>3261.362367330581</v>
       </c>
       <c r="W38" t="n">
-        <v>2965.087452944052</v>
+        <v>2965.087452944053</v>
       </c>
       <c r="X38" t="n">
         <v>2648.115435566558</v>
       </c>
       <c r="Y38" t="n">
-        <v>2314.469844474331</v>
+        <v>2314.469844474332</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H39" t="n">
-        <v>95.95899810306179</v>
+        <v>95.95899810306177</v>
       </c>
       <c r="I39" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J39" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K39" t="n">
-        <v>475.9063032441629</v>
+        <v>612.896762899611</v>
       </c>
       <c r="L39" t="n">
-        <v>791.8480742718152</v>
+        <v>928.8385339272631</v>
       </c>
       <c r="M39" t="n">
-        <v>1179.89408722274</v>
+        <v>1316.884546878188</v>
       </c>
       <c r="N39" t="n">
-        <v>1592.619168385275</v>
+        <v>1729.609628040723</v>
       </c>
       <c r="O39" t="n">
-        <v>1947.962190060797</v>
+        <v>2084.952649716244</v>
       </c>
       <c r="P39" t="n">
-        <v>2217.10854074473</v>
+        <v>2350.813685961746</v>
       </c>
       <c r="Q39" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R39" t="n">
         <v>2583.298057652393</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>716.6043341888451</v>
+        <v>716.6043341888452</v>
       </c>
       <c r="C40" t="n">
-        <v>604.1618921445238</v>
+        <v>604.1618921445239</v>
       </c>
       <c r="D40" t="n">
         <v>510.5389936157737</v>
       </c>
       <c r="E40" t="n">
-        <v>419.1196409169661</v>
+        <v>419.1196409169662</v>
       </c>
       <c r="F40" t="n">
         <v>328.7234343026414</v>
       </c>
       <c r="G40" t="n">
-        <v>217.3143800099393</v>
+        <v>217.3143800099394</v>
       </c>
       <c r="H40" t="n">
         <v>125.8131208124331</v>
       </c>
       <c r="I40" t="n">
-        <v>78.96788554409279</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J40" t="n">
-        <v>165.6042915590316</v>
+        <v>165.6042915590315</v>
       </c>
       <c r="K40" t="n">
-        <v>402.1917497364987</v>
+        <v>402.1917497364986</v>
       </c>
       <c r="L40" t="n">
-        <v>744.984275329424</v>
+        <v>744.9842753294238</v>
       </c>
       <c r="M40" t="n">
         <v>1113.790178390464</v>
       </c>
       <c r="N40" t="n">
-        <v>1480.577881140503</v>
+        <v>1480.577881140502</v>
       </c>
       <c r="O40" t="n">
         <v>1807.576201541056</v>
       </c>
       <c r="P40" t="n">
-        <v>2071.850402722024</v>
+        <v>2071.850402722025</v>
       </c>
       <c r="Q40" t="n">
         <v>2188.419614033844</v>
       </c>
       <c r="R40" t="n">
-        <v>2146.092034099697</v>
+        <v>2146.092034099698</v>
       </c>
       <c r="S40" t="n">
         <v>2007.415158607567</v>
@@ -7375,7 +7375,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y40" t="n">
-        <v>841.7590581354992</v>
+        <v>841.7590581354993</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1671.89496923697</v>
       </c>
       <c r="D41" t="n">
-        <v>1370.123011513805</v>
+        <v>1370.123011513806</v>
       </c>
       <c r="E41" t="n">
-        <v>1040.828499799146</v>
+        <v>1040.828499799147</v>
       </c>
       <c r="F41" t="n">
-        <v>686.3363358931243</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3118533330305</v>
+        <v>327.3118533330307</v>
       </c>
       <c r="H41" t="n">
-        <v>81.65671813272796</v>
+        <v>81.65671813272795</v>
       </c>
       <c r="I41" t="n">
         <v>78.96788554409279</v>
@@ -7412,37 +7412,37 @@
         <v>398.1711204318187</v>
       </c>
       <c r="K41" t="n">
-        <v>735.1674301078363</v>
+        <v>997.3188288736642</v>
       </c>
       <c r="L41" t="n">
-        <v>1530.739770236651</v>
+        <v>1379.406566597533</v>
       </c>
       <c r="M41" t="n">
-        <v>1987.555436323917</v>
+        <v>1836.222232684799</v>
       </c>
       <c r="N41" t="n">
-        <v>2889.350121021248</v>
+        <v>2305.043462214265</v>
       </c>
       <c r="O41" t="n">
-        <v>3318.709452613571</v>
+        <v>2789.936890770498</v>
       </c>
       <c r="P41" t="n">
-        <v>3650.656707689452</v>
+        <v>3440.464866936147</v>
       </c>
       <c r="Q41" t="n">
-        <v>3851.762525372129</v>
+        <v>3851.76252537213</v>
       </c>
       <c r="R41" t="n">
-        <v>3948.394277204639</v>
+        <v>3948.39427720464</v>
       </c>
       <c r="S41" t="n">
-        <v>3884.439290799611</v>
+        <v>3884.439290799612</v>
       </c>
       <c r="T41" t="n">
         <v>3733.003911496239</v>
       </c>
       <c r="U41" t="n">
-        <v>3535.931513790566</v>
+        <v>3535.931513790567</v>
       </c>
       <c r="V41" t="n">
         <v>3261.362367330581</v>
@@ -7488,28 +7488,28 @@
         <v>78.96788554409279</v>
       </c>
       <c r="J42" t="n">
-        <v>275.389765799142</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K42" t="n">
-        <v>475.9063032441629</v>
+        <v>351.0761782571582</v>
       </c>
       <c r="L42" t="n">
-        <v>791.8480742718152</v>
+        <v>718.2428990438509</v>
       </c>
       <c r="M42" t="n">
-        <v>1179.89408722274</v>
+        <v>1106.288911994776</v>
       </c>
       <c r="N42" t="n">
-        <v>1592.619168385275</v>
+        <v>1519.013993157311</v>
       </c>
       <c r="O42" t="n">
-        <v>1947.962190060797</v>
+        <v>1874.357014832832</v>
       </c>
       <c r="P42" t="n">
-        <v>2217.10854074473</v>
+        <v>2455.496192031872</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R42" t="n">
         <v>2583.298057652393</v>
@@ -7546,22 +7546,22 @@
         <v>716.6043341888455</v>
       </c>
       <c r="C43" t="n">
-        <v>604.1618921445241</v>
+        <v>604.1618921445242</v>
       </c>
       <c r="D43" t="n">
-        <v>510.5389936157739</v>
+        <v>510.5389936157741</v>
       </c>
       <c r="E43" t="n">
-        <v>419.1196409169663</v>
+        <v>419.1196409169665</v>
       </c>
       <c r="F43" t="n">
-        <v>328.7234343026415</v>
+        <v>328.7234343026417</v>
       </c>
       <c r="G43" t="n">
-        <v>217.3143800099394</v>
+        <v>217.3143800099397</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8131208124332</v>
+        <v>125.8131208124331</v>
       </c>
       <c r="I43" t="n">
         <v>78.96788554409279</v>
@@ -7588,19 +7588,19 @@
         <v>2071.850402722025</v>
       </c>
       <c r="Q43" t="n">
-        <v>2188.419614033845</v>
+        <v>2188.419614033844</v>
       </c>
       <c r="R43" t="n">
         <v>2146.092034099698</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.415158607568</v>
+        <v>2007.415158607567</v>
       </c>
       <c r="T43" t="n">
         <v>1841.287915706378</v>
       </c>
       <c r="U43" t="n">
-        <v>1608.667882885553</v>
+        <v>1608.667882885552</v>
       </c>
       <c r="V43" t="n">
         <v>1410.477135563251</v>
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1984.363745293797</v>
+        <v>1984.363745293796</v>
       </c>
       <c r="C44" t="n">
-        <v>1671.894969236971</v>
+        <v>1671.89496923697</v>
       </c>
       <c r="D44" t="n">
-        <v>1370.123011513806</v>
+        <v>1370.123011513805</v>
       </c>
       <c r="E44" t="n">
         <v>1040.828499799147</v>
       </c>
       <c r="F44" t="n">
-        <v>686.3363358931247</v>
+        <v>686.3363358931249</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3118533330304</v>
+        <v>327.3118533330307</v>
       </c>
       <c r="H44" t="n">
-        <v>81.65671813272797</v>
+        <v>81.65671813272792</v>
       </c>
       <c r="I44" t="n">
-        <v>78.96788554409281</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J44" t="n">
-        <v>398.1711204318187</v>
+        <v>230.7654714114657</v>
       </c>
       <c r="K44" t="n">
-        <v>703.633634354879</v>
+        <v>509.0092214078581</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.721372078747</v>
+        <v>1304.581561536673</v>
       </c>
       <c r="M44" t="n">
-        <v>1987.555436323918</v>
+        <v>2206.415625781843</v>
       </c>
       <c r="N44" t="n">
-        <v>2889.350121021248</v>
+        <v>2954.4093766955</v>
       </c>
       <c r="O44" t="n">
-        <v>3318.709452613572</v>
+        <v>3383.768708287823</v>
       </c>
       <c r="P44" t="n">
-        <v>3650.656707689453</v>
+        <v>3715.715963363704</v>
       </c>
       <c r="Q44" t="n">
-        <v>3851.76252537213</v>
+        <v>3916.821781046382</v>
       </c>
       <c r="R44" t="n">
-        <v>3948.39427720464</v>
+        <v>3948.394277204639</v>
       </c>
       <c r="S44" t="n">
-        <v>3884.439290799612</v>
+        <v>3884.439290799611</v>
       </c>
       <c r="T44" t="n">
-        <v>3733.00391149624</v>
+        <v>3733.003911496238</v>
       </c>
       <c r="U44" t="n">
-        <v>3535.931513790567</v>
+        <v>3535.931513790566</v>
       </c>
       <c r="V44" t="n">
-        <v>3261.362367330582</v>
+        <v>3261.362367330581</v>
       </c>
       <c r="W44" t="n">
         <v>2965.087452944053</v>
@@ -7719,34 +7719,34 @@
         <v>188.7643943938657</v>
       </c>
       <c r="H45" t="n">
-        <v>95.9589981030618</v>
+        <v>95.95899810306177</v>
       </c>
       <c r="I45" t="n">
-        <v>78.96788554409281</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J45" t="n">
-        <v>275.3897657991421</v>
+        <v>150.5596408121373</v>
       </c>
       <c r="K45" t="n">
-        <v>475.9063032441629</v>
+        <v>351.0761782571582</v>
       </c>
       <c r="L45" t="n">
-        <v>791.8480742718152</v>
+        <v>667.0179492848104</v>
       </c>
       <c r="M45" t="n">
-        <v>1179.89408722274</v>
+        <v>1055.063962235735</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.619168385275</v>
+        <v>1467.78904339827</v>
       </c>
       <c r="O45" t="n">
-        <v>1947.962190060797</v>
+        <v>1823.132065073792</v>
       </c>
       <c r="P45" t="n">
-        <v>2217.10854074473</v>
+        <v>2404.271242272831</v>
       </c>
       <c r="Q45" t="n">
-        <v>2552.886921223742</v>
+        <v>2583.298057652393</v>
       </c>
       <c r="R45" t="n">
         <v>2583.298057652393</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>716.6043341888455</v>
+        <v>716.6043341888453</v>
       </c>
       <c r="C46" t="n">
-        <v>604.1618921445241</v>
+        <v>604.161892144524</v>
       </c>
       <c r="D46" t="n">
-        <v>510.5389936157739</v>
+        <v>510.5389936157738</v>
       </c>
       <c r="E46" t="n">
         <v>419.1196409169663</v>
@@ -7798,40 +7798,40 @@
         <v>217.3143800099394</v>
       </c>
       <c r="H46" t="n">
-        <v>125.8131208124332</v>
+        <v>125.8131208124331</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96788554409281</v>
+        <v>78.96788554409278</v>
       </c>
       <c r="J46" t="n">
         <v>165.6042915590315</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1917497364985</v>
+        <v>402.1917497364983</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9842753294238</v>
+        <v>744.9842753294236</v>
       </c>
       <c r="M46" t="n">
         <v>1113.790178390464</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.577881140503</v>
+        <v>1480.577881140502</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.576201541057</v>
+        <v>1807.576201541056</v>
       </c>
       <c r="P46" t="n">
         <v>2071.850402722025</v>
       </c>
       <c r="Q46" t="n">
-        <v>2188.419614033845</v>
+        <v>2188.419614033844</v>
       </c>
       <c r="R46" t="n">
-        <v>2146.092034099698</v>
+        <v>2146.092034099697</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.415158607568</v>
+        <v>2007.415158607567</v>
       </c>
       <c r="T46" t="n">
         <v>1841.287915706378</v>
@@ -7849,7 +7849,7 @@
         <v>1006.057896395444</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.7590581354997</v>
+        <v>841.7590581354995</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,13 +8067,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>113.5994225885139</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>253.4832666890903</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>370.2051421339173</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.318499432759381</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>235.210945792751</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>445.1792320529738</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.03681905765922</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.2051421339173</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>14.80335018642069</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.5994225885139</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>25.81178506612596</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>160.1278543980681</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7399051213388</v>
       </c>
       <c r="R18" t="n">
         <v>14.80335018642069</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>113.5994225885139</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>164.1508891629821</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>3.318499432759324</v>
+        <v>213.3957871686084</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>319.8111111313061</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>379.4628121799909</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.318499432759324</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>370.2051421339174</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>84.9980760862494</v>
+        <v>41.77970059841834</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>370.2051421339173</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.318499432759381</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>84.9980760862494</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>34.26201167829532</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>160.1278543980681</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.318499432759381</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>113.5994225885137</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>91.52820493910892</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>51.7423734939801</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.318499432759381</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>262.3067359810834</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.2404600094568</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.318499432759609</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.74237349398041</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>56.09504743829137</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>56.09504743829132</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.318499432759609</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7399051213392</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>59.34601987840921</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>56.09504743829228</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>51.74237349398027</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.318499432759609</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.49370093602812</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>281.9924458426165</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.318499432759609</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.74237349398041</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>14.80335018642069</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.52883566814492</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75.49541333177702</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>58.48806607543189</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.3055863904066</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>97.83310760955519</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.129397072496886</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2226359673672</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2237672245247</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>97.83310760955519</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>61.40361502232713</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.0249521925795</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>72.03107440858105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5150500802809</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.3055863904066</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.83310760955519</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2226359673672</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>178.999269779687</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.50875079889587</v>
+        <v>166.2237672245247</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3055863904066</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>97.83310760955519</v>
       </c>
       <c r="S22" t="n">
-        <v>193.2189102119588</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>220.3947739469271</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>231.7795097773137</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.2237672245247</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5150500802809</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>102.3055863904066</v>
@@ -24412,7 +24412,7 @@
         <v>97.83310760955519</v>
       </c>
       <c r="S25" t="n">
-        <v>32.96062160776742</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>60.19949445008496</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2237672245247</v>
+        <v>63.82932914452206</v>
       </c>
       <c r="H28" t="n">
         <v>146.5150500802809</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3055863904066</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.83310760955519</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.96062160776722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.65579086402737</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3055863904066</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.83310760955519</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.2189102119588</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3947739469271</v>
       </c>
       <c r="U31" t="n">
         <v>286.2226359673672</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>94.89045609414055</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1393130.535199291</v>
+        <v>1393130.53519929</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80375.14585613224</v>
+        <v>80375.14585613222</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
+        <v>78904.04718351435</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78904.04718351435</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78904.04718351437</v>
+      </c>
+      <c r="H2" t="n">
         <v>78904.0471835144</v>
       </c>
-      <c r="F2" t="n">
-        <v>78904.04718351437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78904.04718351434</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78904.04718351435</v>
-      </c>
       <c r="I2" t="n">
-        <v>78904.04718351437</v>
+        <v>78904.0471835144</v>
       </c>
       <c r="J2" t="n">
-        <v>78904.04718351437</v>
+        <v>78904.04718351438</v>
       </c>
       <c r="K2" t="n">
         <v>78904.04718351435</v>
@@ -26344,13 +26344,13 @@
         <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642839</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642836</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642837</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44743.04277979979</v>
+        <v>44743.04277979976</v>
       </c>
       <c r="M3" t="n">
         <v>185927.1870186581</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336196.9482872165</v>
+        <v>336196.9482872164</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26424,19 +26424,19 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>40942.36953969282</v>
+        <v>40942.36953969281</v>
       </c>
       <c r="F4" t="n">
         <v>40942.36953969281</v>
       </c>
       <c r="G4" t="n">
+        <v>40942.3695396928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40942.36953969282</v>
+      </c>
+      <c r="I4" t="n">
         <v>40942.36953969281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40942.36953969281</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40942.36953969282</v>
       </c>
       <c r="J4" t="n">
         <v>40942.36953969281</v>
@@ -26445,16 +26445,16 @@
         <v>40942.36953969281</v>
       </c>
       <c r="L4" t="n">
-        <v>59345.73312429637</v>
+        <v>59345.73312429636</v>
       </c>
       <c r="M4" t="n">
-        <v>83731.80533908244</v>
+        <v>83731.80533908241</v>
       </c>
       <c r="N4" t="n">
-        <v>83731.80533908242</v>
+        <v>83731.80533908239</v>
       </c>
       <c r="O4" t="n">
-        <v>83731.80533908242</v>
+        <v>83731.80533908241</v>
       </c>
       <c r="P4" t="n">
         <v>83731.80533908241</v>
@@ -26503,13 +26503,13 @@
         <v>86081.45973560595</v>
       </c>
       <c r="N5" t="n">
+        <v>86081.45973560594</v>
+      </c>
+      <c r="O5" t="n">
         <v>86081.45973560595</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>86081.45973560594</v>
-      </c>
-      <c r="P5" t="n">
-        <v>86081.45973560595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384872.5027263936</v>
+        <v>-384915.728504651</v>
       </c>
       <c r="C6" t="n">
         <v>-312242.7804826042</v>
@@ -26528,25 +26528,25 @@
         <v>-312242.7804826042</v>
       </c>
       <c r="E6" t="n">
-        <v>-1131205.308347257</v>
+        <v>-1131285.31159233</v>
       </c>
       <c r="F6" t="n">
-        <v>-56561.34526905496</v>
+        <v>-56641.34851412782</v>
       </c>
       <c r="G6" t="n">
-        <v>-56561.34526905499</v>
+        <v>-56641.3485141278</v>
       </c>
       <c r="H6" t="n">
-        <v>-56561.34526905497</v>
+        <v>-56641.34851412779</v>
       </c>
       <c r="I6" t="n">
-        <v>-56561.34526905497</v>
+        <v>-56641.34851412778</v>
       </c>
       <c r="J6" t="n">
-        <v>-119621.2878681612</v>
+        <v>-119701.291113234</v>
       </c>
       <c r="K6" t="n">
-        <v>-56561.34526905497</v>
+        <v>-56641.34851412782</v>
       </c>
       <c r="L6" t="n">
         <v>-121209.5004098631</v>
@@ -26555,13 +26555,13 @@
         <v>-273636.2751069181</v>
       </c>
       <c r="N6" t="n">
-        <v>-87709.08808826002</v>
+        <v>-87709.08808825994</v>
       </c>
       <c r="O6" t="n">
-        <v>-87709.08808825994</v>
+        <v>-87709.08808826</v>
       </c>
       <c r="P6" t="n">
-        <v>-87709.08808825999</v>
+        <v>-87709.08808825997</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M2" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N2" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O2" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P2" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="3">
@@ -26820,16 +26820,16 @@
         <v>1203.273598192431</v>
       </c>
       <c r="M4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.09856930116</v>
       </c>
       <c r="N4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.0985693011597</v>
       </c>
       <c r="O4" t="n">
-        <v>987.0985693011598</v>
+        <v>987.09856930116</v>
       </c>
       <c r="P4" t="n">
-        <v>987.0985693011601</v>
+        <v>987.0985693011597</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>746.0842804235008</v>
+        <v>746.0842804235009</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.2593093147723</v>
+        <v>962.2593093147722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.1907171176766</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5457301614682</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>22.96509990633108</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,13 +27436,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>309.4547625938464</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.7579370015077</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.54775256741509</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>155.9780284959916</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>233.048157031548</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>84.24788291858349</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>316.4369965874659</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.84673021034784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27989,7 +27989,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>47.72049312918523</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y34" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y38" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474937</v>
       </c>
       <c r="N40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O40" t="n">
-        <v>55.92880347474829</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y40" t="n">
-        <v>55.92880347474974</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G41" t="n">
-        <v>55.92880347475</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="C46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="D46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="E46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="F46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="G46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="H46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="I46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="J46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="K46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="L46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="M46" t="n">
-        <v>55.92880347475005</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="N46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="O46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="P46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="R46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="S46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="T46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="U46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="V46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="W46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="X46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.92880347474969</v>
+        <v>55.92880347474971</v>
       </c>
     </row>
   </sheetData>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,13 +34787,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35261,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>322.427509987602</v>
       </c>
       <c r="K11" t="n">
-        <v>281.0542929256489</v>
+        <v>605.1997054968136</v>
       </c>
       <c r="L11" t="n">
         <v>803.6084243725398</v>
       </c>
       <c r="M11" t="n">
-        <v>910.943499237546</v>
+        <v>575.0293883332274</v>
       </c>
       <c r="N11" t="n">
-        <v>910.9037219164956</v>
+        <v>473.5567975045114</v>
       </c>
       <c r="O11" t="n">
-        <v>433.6962945377004</v>
+        <v>814.4964758004458</v>
       </c>
       <c r="P11" t="n">
-        <v>588.7835243414953</v>
+        <v>657.0989658238877</v>
       </c>
       <c r="Q11" t="n">
         <v>415.4521802383668</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K12" t="n">
         <v>202.5419570151726</v>
@@ -35495,7 +35495,7 @@
         <v>319.1331020481336</v>
       </c>
       <c r="M12" t="n">
-        <v>391.9656696473989</v>
+        <v>762.1708117813162</v>
       </c>
       <c r="N12" t="n">
         <v>416.8940213762977</v>
@@ -35504,13 +35504,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P12" t="n">
-        <v>271.8650006908421</v>
+        <v>268.5465012580827</v>
       </c>
       <c r="Q12" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R12" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>153.3308948155282</v>
       </c>
       <c r="K14" t="n">
-        <v>605.1997054968136</v>
+        <v>516.2652387183999</v>
       </c>
       <c r="L14" t="n">
         <v>803.6084243725398</v>
       </c>
       <c r="M14" t="n">
-        <v>906.6091977976873</v>
+        <v>461.4299657447135</v>
       </c>
       <c r="N14" t="n">
         <v>910.9037219164956</v>
@@ -35662,10 +35662,10 @@
         <v>814.4964758004458</v>
       </c>
       <c r="P14" t="n">
-        <v>335.300257652405</v>
+        <v>657.0989658238877</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383668</v>
       </c>
       <c r="R14" t="n">
         <v>31.89141026086611</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K15" t="n">
-        <v>236.5787760728318</v>
+        <v>202.5419570151726</v>
       </c>
       <c r="L15" t="n">
-        <v>319.1331020481336</v>
+        <v>689.3382441820509</v>
       </c>
       <c r="M15" t="n">
         <v>391.9656696473989</v>
@@ -35744,7 +35744,7 @@
         <v>268.5465012580827</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>322.427509987602</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K17" t="n">
         <v>605.1997054968136</v>
       </c>
       <c r="L17" t="n">
-        <v>803.6084243725398</v>
+        <v>385.9472098220894</v>
       </c>
       <c r="M17" t="n">
-        <v>575.0293883332274</v>
+        <v>910.943499237546</v>
       </c>
       <c r="N17" t="n">
-        <v>473.5567975045114</v>
+        <v>910.9037219164956</v>
       </c>
       <c r="O17" t="n">
         <v>814.4964758004458</v>
@@ -35902,7 +35902,7 @@
         <v>657.0989658238877</v>
       </c>
       <c r="Q17" t="n">
-        <v>415.4521802383668</v>
+        <v>228.9489746445881</v>
       </c>
       <c r="R17" t="n">
         <v>97.60783013384855</v>
@@ -35963,10 +35963,10 @@
         <v>72.31490431115606</v>
       </c>
       <c r="K18" t="n">
-        <v>202.5419570151726</v>
+        <v>467.0071940277512</v>
       </c>
       <c r="L18" t="n">
-        <v>479.2609564462016</v>
+        <v>319.1331020481336</v>
       </c>
       <c r="M18" t="n">
         <v>391.9656696473989</v>
@@ -35981,7 +35981,7 @@
         <v>268.5465012580827</v>
       </c>
       <c r="Q18" t="n">
-        <v>339.1700812919312</v>
+        <v>234.8326986774208</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>322.427509987602</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K20" t="n">
         <v>605.1997054968136</v>
@@ -36127,22 +36127,22 @@
         <v>803.6084243725398</v>
       </c>
       <c r="M20" t="n">
-        <v>575.0293883332274</v>
+        <v>910.943499237546</v>
       </c>
       <c r="N20" t="n">
-        <v>473.5567975045114</v>
+        <v>910.9037219164956</v>
       </c>
       <c r="O20" t="n">
-        <v>814.4964758004458</v>
+        <v>433.6962945377004</v>
       </c>
       <c r="P20" t="n">
-        <v>657.0989658238877</v>
+        <v>499.4511468153871</v>
       </c>
       <c r="Q20" t="n">
         <v>415.4521802383668</v>
       </c>
       <c r="R20" t="n">
-        <v>97.60783013384855</v>
+        <v>31.89141026086611</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>198.4059396515649</v>
       </c>
       <c r="K21" t="n">
-        <v>205.8604564479319</v>
+        <v>415.937744183781</v>
       </c>
       <c r="L21" t="n">
         <v>319.1331020481336</v>
@@ -36218,7 +36218,7 @@
         <v>268.5465012580827</v>
       </c>
       <c r="Q21" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R21" t="n">
         <v>30.71831962490013</v>
@@ -36358,13 +36358,13 @@
         <v>153.3308948155282</v>
       </c>
       <c r="K23" t="n">
-        <v>600.865404056955</v>
+        <v>605.1997054968136</v>
       </c>
       <c r="L23" t="n">
         <v>803.6084243725398</v>
       </c>
       <c r="M23" t="n">
-        <v>910.943499237546</v>
+        <v>840.8927779247044</v>
       </c>
       <c r="N23" t="n">
         <v>910.9037219164956</v>
@@ -36379,7 +36379,7 @@
         <v>203.1371895784621</v>
       </c>
       <c r="R23" t="n">
-        <v>31.89141026086611</v>
+        <v>97.60783013384855</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K24" t="n">
-        <v>205.8604564479319</v>
+        <v>202.5419570151726</v>
       </c>
       <c r="L24" t="n">
         <v>319.1331020481336</v>
@@ -36449,16 +36449,16 @@
         <v>416.8940213762977</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9323451267895</v>
+        <v>729.1374872607068</v>
       </c>
       <c r="P24" t="n">
         <v>268.5465012580827</v>
       </c>
       <c r="Q24" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R24" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>322.427509987602</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K26" t="n">
-        <v>366.0523690118983</v>
+        <v>322.8339935240672</v>
       </c>
       <c r="L26" t="n">
         <v>803.6084243725398</v>
@@ -36613,7 +36613,7 @@
         <v>335.300257652405</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383668</v>
       </c>
       <c r="R26" t="n">
         <v>97.60783013384855</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K27" t="n">
         <v>202.5419570151726</v>
@@ -36683,19 +36683,19 @@
         <v>391.9656696473989</v>
       </c>
       <c r="N27" t="n">
-        <v>416.8940213762977</v>
+        <v>787.099163510215</v>
       </c>
       <c r="O27" t="n">
         <v>358.9323451267895</v>
       </c>
       <c r="P27" t="n">
-        <v>271.8650006908421</v>
+        <v>268.5465012580827</v>
       </c>
       <c r="Q27" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R27" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>322.427509987602</v>
       </c>
       <c r="K29" t="n">
-        <v>366.0523690118983</v>
+        <v>281.0542929256489</v>
       </c>
       <c r="L29" t="n">
-        <v>803.6084243725398</v>
+        <v>420.2092215003847</v>
       </c>
       <c r="M29" t="n">
         <v>910.943499237546</v>
@@ -36847,13 +36847,13 @@
         <v>814.4964758004458</v>
       </c>
       <c r="P29" t="n">
-        <v>335.300257652405</v>
+        <v>657.0989658238877</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383668</v>
       </c>
       <c r="R29" t="n">
-        <v>97.60783013384855</v>
+        <v>31.89141026086611</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K30" t="n">
-        <v>202.5419570151726</v>
+        <v>362.6698114132407</v>
       </c>
       <c r="L30" t="n">
         <v>319.1331020481336</v>
@@ -36926,13 +36926,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P30" t="n">
-        <v>271.8650006908421</v>
+        <v>268.5465012580827</v>
       </c>
       <c r="Q30" t="n">
         <v>339.1700812919312</v>
       </c>
       <c r="R30" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>322.427509987602</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K32" t="n">
         <v>605.1997054968136</v>
       </c>
       <c r="L32" t="n">
-        <v>803.6084243725398</v>
+        <v>385.9472098220894</v>
       </c>
       <c r="M32" t="n">
-        <v>461.4299657447135</v>
+        <v>910.943499237546</v>
       </c>
       <c r="N32" t="n">
-        <v>587.1562200930251</v>
+        <v>910.9037219164956</v>
       </c>
       <c r="O32" t="n">
         <v>814.4964758004458</v>
@@ -37087,10 +37087,10 @@
         <v>657.0989658238877</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.4521802383668</v>
+        <v>294.665394517571</v>
       </c>
       <c r="R32" t="n">
-        <v>97.60783013384855</v>
+        <v>31.89141026086611</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K33" t="n">
-        <v>202.5419570151726</v>
+        <v>254.2843305091527</v>
       </c>
       <c r="L33" t="n">
         <v>319.1331020481336</v>
@@ -37163,13 +37163,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P33" t="n">
-        <v>271.8650006908421</v>
+        <v>587.0092698980199</v>
       </c>
       <c r="Q33" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R33" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.51152122721091</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K34" t="n">
         <v>238.97723048229</v>
       </c>
       <c r="L34" t="n">
-        <v>346.2550763564902</v>
+        <v>346.2550763564901</v>
       </c>
       <c r="M34" t="n">
         <v>372.5312152131721</v>
@@ -37239,10 +37239,10 @@
         <v>370.4926290404427</v>
       </c>
       <c r="O34" t="n">
-        <v>330.3013337379338</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P34" t="n">
-        <v>266.9436375565338</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q34" t="n">
         <v>117.7466780927471</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>153.3308948155282</v>
+        <v>322.427509987602</v>
       </c>
       <c r="K35" t="n">
         <v>281.0542929256489</v>
       </c>
       <c r="L35" t="n">
-        <v>648.2539458031728</v>
+        <v>385.9472098220894</v>
       </c>
       <c r="M35" t="n">
-        <v>910.943499237546</v>
+        <v>461.4299657447135</v>
       </c>
       <c r="N35" t="n">
-        <v>910.9037219164956</v>
+        <v>473.5567975045114</v>
       </c>
       <c r="O35" t="n">
-        <v>433.6962945377004</v>
+        <v>813.9367545471572</v>
       </c>
       <c r="P35" t="n">
-        <v>335.300257652405</v>
+        <v>657.0989658238877</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383668</v>
       </c>
       <c r="R35" t="n">
-        <v>31.89141026086611</v>
+        <v>97.60783013384855</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K36" t="n">
         <v>202.5419570151726</v>
@@ -37400,13 +37400,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P36" t="n">
-        <v>271.8650006908423</v>
+        <v>587.0092698980199</v>
       </c>
       <c r="Q36" t="n">
-        <v>339.1700812919312</v>
+        <v>180.8351670500625</v>
       </c>
       <c r="R36" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.51152122721091</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K37" t="n">
         <v>238.97723048229</v>
       </c>
       <c r="L37" t="n">
-        <v>346.2550763564902</v>
+        <v>346.2550763564901</v>
       </c>
       <c r="M37" t="n">
         <v>372.5312152131721</v>
@@ -37476,10 +37476,10 @@
         <v>370.4926290404427</v>
       </c>
       <c r="O37" t="n">
-        <v>330.3013337379338</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P37" t="n">
-        <v>266.9436375565338</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q37" t="n">
         <v>117.7466780927471</v>
@@ -37546,7 +37546,7 @@
         <v>605.1997054968136</v>
       </c>
       <c r="L38" t="n">
-        <v>442.0422572603808</v>
+        <v>385.9472098220894</v>
       </c>
       <c r="M38" t="n">
         <v>461.4299657447135</v>
@@ -37555,7 +37555,7 @@
         <v>473.5567975045114</v>
       </c>
       <c r="O38" t="n">
-        <v>433.6962945377004</v>
+        <v>489.7913419759917</v>
       </c>
       <c r="P38" t="n">
         <v>657.0989658238877</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K39" t="n">
-        <v>202.5419570151726</v>
+        <v>467.0071940277512</v>
       </c>
       <c r="L39" t="n">
         <v>319.1331020481336</v>
@@ -37637,13 +37637,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P39" t="n">
-        <v>271.8650006908423</v>
+        <v>268.5465012580827</v>
       </c>
       <c r="Q39" t="n">
-        <v>339.1700812919312</v>
+        <v>234.8326986774213</v>
       </c>
       <c r="R39" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.51152122721091</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K40" t="n">
         <v>238.97723048229</v>
       </c>
       <c r="L40" t="n">
-        <v>346.2550763564902</v>
+        <v>346.2550763564901</v>
       </c>
       <c r="M40" t="n">
-        <v>372.5312152131721</v>
+        <v>372.5312152131717</v>
       </c>
       <c r="N40" t="n">
         <v>370.4926290404427</v>
       </c>
       <c r="O40" t="n">
-        <v>330.3013337379323</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P40" t="n">
-        <v>266.9436375565338</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q40" t="n">
         <v>117.7466780927471</v>
@@ -37780,25 +37780,25 @@
         <v>322.427509987602</v>
       </c>
       <c r="K41" t="n">
-        <v>340.4003128040581</v>
+        <v>605.1997054968136</v>
       </c>
       <c r="L41" t="n">
-        <v>803.6084243725398</v>
+        <v>385.9472098220894</v>
       </c>
       <c r="M41" t="n">
         <v>461.4299657447135</v>
       </c>
       <c r="N41" t="n">
-        <v>910.9037219164956</v>
+        <v>473.5567975045114</v>
       </c>
       <c r="O41" t="n">
-        <v>433.6962945377004</v>
+        <v>489.7913419759927</v>
       </c>
       <c r="P41" t="n">
-        <v>335.300257652405</v>
+        <v>657.0989658238877</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.1371895784621</v>
+        <v>415.4521802383668</v>
       </c>
       <c r="R41" t="n">
         <v>97.60783013384855</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K42" t="n">
         <v>202.5419570151726</v>
       </c>
       <c r="L42" t="n">
-        <v>319.1331020481336</v>
+        <v>370.8754755421139</v>
       </c>
       <c r="M42" t="n">
         <v>391.9656696473989</v>
@@ -37874,13 +37874,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P42" t="n">
-        <v>271.8650006908423</v>
+        <v>587.0092698980199</v>
       </c>
       <c r="Q42" t="n">
-        <v>339.1700812919312</v>
+        <v>129.0927935560821</v>
       </c>
       <c r="R42" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.51152122721085</v>
+        <v>87.51152122721086</v>
       </c>
       <c r="K43" t="n">
-        <v>238.9772304822899</v>
+        <v>238.97723048229</v>
       </c>
       <c r="L43" t="n">
-        <v>346.2550763564901</v>
+        <v>346.2550763564902</v>
       </c>
       <c r="M43" t="n">
-        <v>372.531215213172</v>
+        <v>372.5312152131721</v>
       </c>
       <c r="N43" t="n">
         <v>370.4926290404426</v>
       </c>
       <c r="O43" t="n">
-        <v>330.3013337379336</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P43" t="n">
-        <v>266.9436375565336</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q43" t="n">
         <v>117.7466780927471</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>322.427509987602</v>
+        <v>153.3308948155282</v>
       </c>
       <c r="K44" t="n">
-        <v>308.547993861677</v>
+        <v>281.0542929256489</v>
       </c>
       <c r="L44" t="n">
-        <v>385.9472098220894</v>
+        <v>803.6084243725398</v>
       </c>
       <c r="M44" t="n">
         <v>910.943499237546</v>
       </c>
       <c r="N44" t="n">
-        <v>910.9037219164956</v>
+        <v>755.5492433471279</v>
       </c>
       <c r="O44" t="n">
         <v>433.6962945377004</v>
@@ -38038,7 +38038,7 @@
         <v>203.1371895784621</v>
       </c>
       <c r="R44" t="n">
-        <v>97.60783013384855</v>
+        <v>31.89141026086611</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>198.4059396515649</v>
+        <v>72.31490431115606</v>
       </c>
       <c r="K45" t="n">
         <v>202.5419570151726</v>
@@ -38111,13 +38111,13 @@
         <v>358.9323451267895</v>
       </c>
       <c r="P45" t="n">
-        <v>271.8650006908423</v>
+        <v>587.0092698980199</v>
       </c>
       <c r="Q45" t="n">
-        <v>339.1700812919312</v>
+        <v>180.8351670500625</v>
       </c>
       <c r="R45" t="n">
-        <v>30.71831962490013</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.51152122721085</v>
+        <v>87.51152122721088</v>
       </c>
       <c r="K46" t="n">
-        <v>238.9772304822899</v>
+        <v>238.97723048229</v>
       </c>
       <c r="L46" t="n">
-        <v>346.2550763564901</v>
+        <v>346.2550763564902</v>
       </c>
       <c r="M46" t="n">
-        <v>372.5312152131724</v>
+        <v>372.5312152131721</v>
       </c>
       <c r="N46" t="n">
         <v>370.4926290404426</v>
       </c>
       <c r="O46" t="n">
-        <v>330.3013337379336</v>
+        <v>330.3013337379337</v>
       </c>
       <c r="P46" t="n">
-        <v>266.9436375565336</v>
+        <v>266.9436375565337</v>
       </c>
       <c r="Q46" t="n">
         <v>117.7466780927471</v>
